--- a/Financials/Yearly/FG_YR_FIN.xlsx
+++ b/Financials/Yearly/FG_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584FCA2C-2633-4483-BA61-7B30C49B9938}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FG" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="92">
   <si>
     <t>FG</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,45 +689,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -705,20 +740,23 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>735000</v>
+      </c>
+      <c r="E8" s="3">
         <v>2079000</v>
       </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
+      <c r="F8" s="3">
+        <v>1525000</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
@@ -732,20 +770,23 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>1211000</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
+        <v>423000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1194000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>811000</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
@@ -759,20 +800,23 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
-        <v>868000</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
+        <v>312000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>885000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>714000</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
@@ -786,9 +830,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -800,8 +847,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -826,9 +874,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -853,20 +904,23 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>226000</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>3</v>
+        <v>55000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>48000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>61000</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>3</v>
@@ -880,20 +934,23 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>230000</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>3</v>
+        <v>49000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>233000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>177000</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>3</v>
@@ -907,9 +964,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -918,19 +978,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1667000</v>
+        <v>677000</v>
       </c>
       <c r="E17" s="3">
-        <v>1200</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>1653000</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1181000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -944,20 +1005,23 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>412000</v>
+        <v>58000</v>
       </c>
       <c r="E18" s="3">
-        <v>-1200</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>426000</v>
+      </c>
+      <c r="F18" s="3">
+        <v>344000</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -971,9 +1035,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -985,8 +1052,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -994,10 +1062,10 @@
         <v>0</v>
       </c>
       <c r="E20" s="3">
-        <v>900</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
@@ -1011,17 +1079,20 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>412000</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-300</v>
+        <v>101000</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1038,20 +1109,23 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E22" s="3">
         <v>30000</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+      <c r="F22" s="3">
+        <v>28000</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
@@ -1065,20 +1139,23 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>382000</v>
+        <v>29000</v>
       </c>
       <c r="E23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>396000</v>
+      </c>
+      <c r="F23" s="3">
+        <v>316000</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1092,20 +1169,23 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>102000</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F24" s="3">
+        <v>111000</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1119,9 +1199,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1146,20 +1229,23 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>280000</v>
+        <v>13000</v>
       </c>
       <c r="E26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>291000</v>
+      </c>
+      <c r="F26" s="3">
+        <v>205000</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1173,20 +1259,23 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>278000</v>
+        <v>-16000</v>
       </c>
       <c r="E27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>289000</v>
+      </c>
+      <c r="F27" s="3">
+        <v>205000</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1200,9 +1289,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1227,18 +1319,21 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-131000</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F29" s="3" t="s">
         <v>3</v>
       </c>
@@ -1254,9 +1349,12 @@
       <c r="J29" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K29" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1281,9 +1379,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1308,9 +1409,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1318,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="E32" s="3">
-        <v>-900</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
@@ -1335,20 +1439,23 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>147000</v>
+        <v>-16000</v>
       </c>
       <c r="E33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>158000</v>
+      </c>
+      <c r="F33" s="3">
+        <v>205000</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1362,9 +1469,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1389,20 +1499,23 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>147000</v>
+        <v>-16000</v>
       </c>
       <c r="E35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>158000</v>
+      </c>
+      <c r="F35" s="3">
+        <v>205000</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1416,26 +1529,29 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1448,9 +1564,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1462,8 +1581,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1475,20 +1595,21 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>571000</v>
+      </c>
+      <c r="E41" s="3">
         <v>1215000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1501,9 +1622,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1528,9 +1652,12 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1555,9 +1682,12 @@
       <c r="J43" s="3">
         <v>0</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1582,21 +1712,24 @@
       <c r="J44" s="3">
         <v>0</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E45" s="3">
+      <c r="E45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1609,9 +1742,12 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1636,21 +1772,24 @@
       <c r="J46" s="3">
         <v>0</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>23820000</v>
+      </c>
+      <c r="E47" s="3">
         <v>23112000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>690900</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1663,9 +1802,12 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1690,17 +1832,20 @@
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>1332000</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>3</v>
+        <v>1826000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>1320000</v>
       </c>
       <c r="F49" s="3" t="s">
         <v>3</v>
@@ -1717,9 +1862,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1744,9 +1892,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1771,17 +1922,20 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>176000</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
+        <v>343000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>182000</v>
       </c>
       <c r="F52" s="3" t="s">
         <v>3</v>
@@ -1798,9 +1952,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1825,21 +1982,24 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>29929000</v>
+        <v>30945000</v>
       </c>
       <c r="E54" s="3">
+        <v>29923000</v>
+      </c>
+      <c r="F54" s="3">
         <v>692100</v>
       </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1852,9 +2012,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1866,8 +2029,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1879,20 +2043,21 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F57" s="3">
         <v>600</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,9 +2070,12 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1932,21 +2100,24 @@
       <c r="J58" s="3">
         <v>0</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K58" s="3">
+        <v>0</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>26643000</v>
+        <v>28858000</v>
       </c>
       <c r="E59" s="3">
+        <v>26626000</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,9 +2130,12 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1986,21 +2160,24 @@
       <c r="J60" s="3">
         <v>0</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>541000</v>
+      </c>
+      <c r="E61" s="3">
         <v>412000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>640700</v>
       </c>
-      <c r="F61" s="3">
-        <v>0</v>
-      </c>
       <c r="G61" s="3">
         <v>0</v>
       </c>
@@ -2013,9 +2190,12 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2040,9 +2220,12 @@
       <c r="J62" s="3">
         <v>0</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2067,9 +2250,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2094,9 +2280,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2121,21 +2310,24 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>27977000</v>
+        <v>30055000</v>
       </c>
       <c r="E66" s="3">
+        <v>27960000</v>
+      </c>
+      <c r="F66" s="3">
         <v>687100</v>
       </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2148,9 +2340,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2162,8 +2357,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2188,9 +2384,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2215,9 +2414,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2242,9 +2444,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2269,21 +2474,24 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-160000</v>
+        <v>-167000</v>
       </c>
       <c r="E72" s="3">
+        <v>-149000</v>
+      </c>
+      <c r="F72" s="3">
         <v>-300</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2296,9 +2504,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2323,9 +2534,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2350,9 +2564,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2377,21 +2594,24 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1952000</v>
+        <v>890000</v>
       </c>
       <c r="E76" s="3">
+        <v>1963000</v>
+      </c>
+      <c r="F76" s="3">
         <v>5000</v>
       </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2404,9 +2624,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2431,26 +2654,29 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2463,20 +2689,23 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>147000</v>
+        <v>-16000</v>
       </c>
       <c r="E81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>158000</v>
+      </c>
+      <c r="F81" s="3">
+        <v>205000</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2490,9 +2719,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2504,35 +2736,39 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
-      </c>
-      <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+        <v>43000</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2557,9 +2793,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2584,9 +2823,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2611,9 +2853,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2638,9 +2883,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2665,20 +2913,23 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>394000</v>
+        <v>897000</v>
       </c>
       <c r="E89" s="3">
-        <v>-500</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
+        <v>401000</v>
+      </c>
+      <c r="F89" s="3">
+        <v>437000</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
@@ -2692,9 +2943,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2706,19 +2960,20 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6000</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
+      <c r="F91" s="3">
+        <v>-10000</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2732,9 +2987,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2759,9 +3017,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2786,20 +3047,23 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2280000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1414000</v>
       </c>
-      <c r="E94" s="3">
-        <v>-690000</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
+      <c r="F94" s="3">
+        <v>-1780000</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
@@ -2813,9 +3077,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2827,19 +3094,20 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-19000</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
-        <v>0</v>
+        <v>-19000</v>
       </c>
       <c r="G96" s="3">
         <v>0</v>
@@ -2853,9 +3121,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2880,9 +3151,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2907,9 +3181,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2934,20 +3211,23 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>1188000</v>
+        <v>739000</v>
       </c>
       <c r="E100" s="3">
-        <v>691600</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
+        <v>1181000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>1473000</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
@@ -2961,9 +3241,12 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2988,20 +3271,23 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="K101" s="3">
+        <v>0</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-644000</v>
+      </c>
+      <c r="E102" s="3">
         <v>168000</v>
       </c>
-      <c r="E102" s="3">
-        <v>1000</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
+      <c r="F102" s="3">
+        <v>130000</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
@@ -3015,7 +3301,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Financials/Yearly/FG_YR_FIN.xlsx
+++ b/Financials/Yearly/FG_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584FCA2C-2633-4483-BA61-7B30C49B9938}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="FG" sheetId="6" r:id="rId1"/>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,33 +654,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -745,7 +710,7 @@
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -775,7 +740,7 @@
       </c>
       <c r="L8" s="3"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -805,7 +770,7 @@
       </c>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,7 +800,7 @@
       </c>
       <c r="L10" s="3"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -849,7 +814,7 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -879,7 +844,7 @@
       </c>
       <c r="L12" s="3"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -909,7 +874,7 @@
       </c>
       <c r="L13" s="3"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -939,7 +904,7 @@
       </c>
       <c r="L14" s="3"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -969,7 +934,7 @@
       </c>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -980,7 +945,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1010,7 +975,7 @@
       </c>
       <c r="L17" s="3"/>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1040,7 +1005,7 @@
       </c>
       <c r="L18" s="3"/>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1054,7 +1019,7 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1084,7 +1049,7 @@
       </c>
       <c r="L20" s="3"/>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1114,7 +1079,7 @@
       </c>
       <c r="L21" s="3"/>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1144,7 +1109,7 @@
       </c>
       <c r="L22" s="3"/>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1174,7 +1139,7 @@
       </c>
       <c r="L23" s="3"/>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1204,7 +1169,7 @@
       </c>
       <c r="L24" s="3"/>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1234,7 +1199,7 @@
       </c>
       <c r="L25" s="3"/>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1264,7 +1229,7 @@
       </c>
       <c r="L26" s="3"/>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1294,7 +1259,7 @@
       </c>
       <c r="L27" s="3"/>
     </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1324,7 +1289,7 @@
       </c>
       <c r="L28" s="3"/>
     </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1354,7 +1319,7 @@
       </c>
       <c r="L29" s="3"/>
     </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1384,7 +1349,7 @@
       </c>
       <c r="L30" s="3"/>
     </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1414,7 +1379,7 @@
       </c>
       <c r="L31" s="3"/>
     </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1444,7 +1409,7 @@
       </c>
       <c r="L32" s="3"/>
     </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1474,7 +1439,7 @@
       </c>
       <c r="L33" s="3"/>
     </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1504,7 +1469,7 @@
       </c>
       <c r="L34" s="3"/>
     </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1534,12 +1499,12 @@
       </c>
       <c r="L35" s="3"/>
     </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1569,7 +1534,7 @@
       </c>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1583,7 +1548,7 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1597,7 +1562,7 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1627,7 +1592,7 @@
       </c>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1657,7 +1622,7 @@
       </c>
       <c r="L42" s="3"/>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1687,7 +1652,7 @@
       </c>
       <c r="L43" s="3"/>
     </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1717,7 +1682,7 @@
       </c>
       <c r="L44" s="3"/>
     </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1747,7 +1712,7 @@
       </c>
       <c r="L45" s="3"/>
     </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1777,7 +1742,7 @@
       </c>
       <c r="L46" s="3"/>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1807,7 +1772,7 @@
       </c>
       <c r="L47" s="3"/>
     </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1837,7 +1802,7 @@
       </c>
       <c r="L48" s="3"/>
     </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1867,7 +1832,7 @@
       </c>
       <c r="L49" s="3"/>
     </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1897,7 +1862,7 @@
       </c>
       <c r="L50" s="3"/>
     </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1927,7 +1892,7 @@
       </c>
       <c r="L51" s="3"/>
     </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1957,7 +1922,7 @@
       </c>
       <c r="L52" s="3"/>
     </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1987,7 +1952,7 @@
       </c>
       <c r="L53" s="3"/>
     </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2017,7 +1982,7 @@
       </c>
       <c r="L54" s="3"/>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2031,7 +1996,7 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
     </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2045,7 +2010,7 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
     </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2075,7 +2040,7 @@
       </c>
       <c r="L57" s="3"/>
     </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2105,7 +2070,7 @@
       </c>
       <c r="L58" s="3"/>
     </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2135,7 +2100,7 @@
       </c>
       <c r="L59" s="3"/>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2165,7 +2130,7 @@
       </c>
       <c r="L60" s="3"/>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2195,7 +2160,7 @@
       </c>
       <c r="L61" s="3"/>
     </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2225,7 +2190,7 @@
       </c>
       <c r="L62" s="3"/>
     </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2255,7 +2220,7 @@
       </c>
       <c r="L63" s="3"/>
     </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2285,7 +2250,7 @@
       </c>
       <c r="L64" s="3"/>
     </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2315,7 +2280,7 @@
       </c>
       <c r="L65" s="3"/>
     </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2345,7 +2310,7 @@
       </c>
       <c r="L66" s="3"/>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2359,7 +2324,7 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
     </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2389,7 +2354,7 @@
       </c>
       <c r="L68" s="3"/>
     </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2419,7 +2384,7 @@
       </c>
       <c r="L69" s="3"/>
     </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2449,7 +2414,7 @@
       </c>
       <c r="L70" s="3"/>
     </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2479,7 +2444,7 @@
       </c>
       <c r="L71" s="3"/>
     </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2509,7 +2474,7 @@
       </c>
       <c r="L72" s="3"/>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2539,7 +2504,7 @@
       </c>
       <c r="L73" s="3"/>
     </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2569,7 +2534,7 @@
       </c>
       <c r="L74" s="3"/>
     </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2599,7 +2564,7 @@
       </c>
       <c r="L75" s="3"/>
     </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2629,7 +2594,7 @@
       </c>
       <c r="L76" s="3"/>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2659,12 +2624,12 @@
       </c>
       <c r="L77" s="3"/>
     </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2694,7 +2659,7 @@
       </c>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2724,7 +2689,7 @@
       </c>
       <c r="L81" s="3"/>
     </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2738,7 +2703,7 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
     </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2768,7 +2733,7 @@
       </c>
       <c r="L83" s="3"/>
     </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2798,7 +2763,7 @@
       </c>
       <c r="L84" s="3"/>
     </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2828,7 +2793,7 @@
       </c>
       <c r="L85" s="3"/>
     </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2858,7 +2823,7 @@
       </c>
       <c r="L86" s="3"/>
     </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2888,7 +2853,7 @@
       </c>
       <c r="L87" s="3"/>
     </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2918,7 +2883,7 @@
       </c>
       <c r="L88" s="3"/>
     </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2948,7 +2913,7 @@
       </c>
       <c r="L89" s="3"/>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2962,7 +2927,7 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
     </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2992,7 +2957,7 @@
       </c>
       <c r="L91" s="3"/>
     </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3022,7 +2987,7 @@
       </c>
       <c r="L92" s="3"/>
     </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3052,7 +3017,7 @@
       </c>
       <c r="L93" s="3"/>
     </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3082,7 +3047,7 @@
       </c>
       <c r="L94" s="3"/>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3096,7 +3061,7 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
     </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3126,7 +3091,7 @@
       </c>
       <c r="L96" s="3"/>
     </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3156,7 +3121,7 @@
       </c>
       <c r="L97" s="3"/>
     </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3186,7 +3151,7 @@
       </c>
       <c r="L98" s="3"/>
     </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3216,7 +3181,7 @@
       </c>
       <c r="L99" s="3"/>
     </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3246,7 +3211,7 @@
       </c>
       <c r="L100" s="3"/>
     </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3276,7 +3241,7 @@
       </c>
       <c r="L101" s="3"/>
     </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
